--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_28.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_28.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_0</t>
+          <t>model_1_28_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9481593446136013</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7453849929337039</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.734946285968173</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998210055104524</v>
+        <v>0.956312206631272</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1817279660278864</v>
       </c>
       <c r="G2" t="n">
-        <v>1.173451248867095</v>
+        <v>1.702611724646628</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9480817663944755</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0005195416143345048</v>
+        <v>0.1434467687518812</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.715539034793882</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4262956321942396</v>
       </c>
       <c r="L2" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9294084692610741</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4330093622620064</v>
       </c>
       <c r="N2" t="n">
-        <v>143.7767041506904</v>
+        <v>37.41048880445296</v>
       </c>
       <c r="O2" t="n">
-        <v>285.1118766939068</v>
+        <v>74.37507239267877</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_1</t>
+          <t>model_1_28_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9480839946585309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7451956044805857</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7349018224439152</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998210055104524</v>
+        <v>0.9566628646452666</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1819921060927289</v>
       </c>
       <c r="G3" t="n">
-        <v>1.173451248867095</v>
+        <v>1.703878166104682</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9482408098426023</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0005195416143345048</v>
+        <v>0.1422954000246962</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.716654369510211</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4266053282516862</v>
       </c>
       <c r="L3" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9293058650669357</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4333239357227752</v>
       </c>
       <c r="N3" t="n">
-        <v>143.7767041506904</v>
+        <v>37.40758393192571</v>
       </c>
       <c r="O3" t="n">
-        <v>285.1118766939068</v>
+        <v>74.37216752015154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_2</t>
+          <t>model_1_28_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9478429563519536</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.744637341273149</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7347316486156019</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998210055104524</v>
+        <v>0.9577162568081632</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1828370684270708</v>
       </c>
       <c r="G4" t="n">
-        <v>1.173451248867095</v>
+        <v>1.707611274743378</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9488495117592335</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0005195416143345048</v>
+        <v>0.1388366375113157</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.719960729862215</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4275945140282681</v>
       </c>
       <c r="L4" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9289776426920219</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4343287001865153</v>
       </c>
       <c r="N4" t="n">
-        <v>143.7767041506904</v>
+        <v>37.39831971837947</v>
       </c>
       <c r="O4" t="n">
-        <v>285.1118766939068</v>
+        <v>74.36290330660529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_3</t>
+          <t>model_1_28_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9477575558245281</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7444321464247825</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7346839646855802</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998210055104524</v>
+        <v>0.9580806367811416</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1831364408796576</v>
       </c>
       <c r="G5" t="n">
-        <v>1.173451248867095</v>
+        <v>1.70898341363924</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9490200744120481</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0005195416143345048</v>
+        <v>0.1376402133916421</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.720999655842725</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4279444366733345</v>
       </c>
       <c r="L5" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9288613526121234</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4346841337634473</v>
       </c>
       <c r="N5" t="n">
-        <v>143.7767041506904</v>
+        <v>37.39504765073796</v>
       </c>
       <c r="O5" t="n">
-        <v>285.1118766939068</v>
+        <v>74.35963123896379</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_4</t>
+          <t>model_1_28_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9475785890166379</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7440315365718626</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7345637511791507</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998210055104524</v>
+        <v>0.9588069393457799</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1837638109185195</v>
       </c>
       <c r="G6" t="n">
-        <v>1.173451248867095</v>
+        <v>1.711662293570353</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9494500711541666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0005195416143345048</v>
+        <v>0.1352554338456894</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.72307593397174</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4286768140668673</v>
       </c>
       <c r="L6" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9286176531290389</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4354280453688193</v>
       </c>
       <c r="N6" t="n">
-        <v>143.7767041506904</v>
+        <v>37.38820796450469</v>
       </c>
       <c r="O6" t="n">
-        <v>285.1118766939068</v>
+        <v>74.35279155273051</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_5</t>
+          <t>model_1_28_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9474850327350395</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.743817623548639</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7345098450482012</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998210055104524</v>
+        <v>0.9591794850371451</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1840917734536626</v>
       </c>
       <c r="G7" t="n">
-        <v>1.173451248867095</v>
+        <v>1.713092730941629</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9496428902589162</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0005195416143345048</v>
+        <v>0.1340321979823501</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.724039462214388</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4290591724385607</v>
       </c>
       <c r="L7" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9284902573413304</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4358164255026488</v>
       </c>
       <c r="N7" t="n">
-        <v>143.7767041506904</v>
+        <v>37.38464175389409</v>
       </c>
       <c r="O7" t="n">
-        <v>285.1118766939068</v>
+        <v>74.34922534211991</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_6</t>
+          <t>model_1_28_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9473887332260134</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7436005206147946</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7344521327807016</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998210055104524</v>
+        <v>0.9595544984000269</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1844293524015824</v>
       </c>
       <c r="G8" t="n">
-        <v>1.173451248867095</v>
+        <v>1.714544499259913</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9498493236934124</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0005195416143345048</v>
+        <v>0.1328008596382467</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.724991306698243</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.429452386652563</v>
       </c>
       <c r="L8" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9283591260949969</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4362158324474516</v>
       </c>
       <c r="N8" t="n">
-        <v>143.7767041506904</v>
+        <v>37.38097760528866</v>
       </c>
       <c r="O8" t="n">
-        <v>285.1118766939068</v>
+        <v>74.34556119351448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_7</t>
+          <t>model_1_28_1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.946745101867818</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7430256862042395</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7332881782066676</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998210055104524</v>
+        <v>0.9614635222317128</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1866856089385569</v>
       </c>
       <c r="G9" t="n">
-        <v>1.173451248867095</v>
+        <v>1.718388419610164</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9540127217147684</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0005195416143345048</v>
+        <v>0.1265326716843617</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.732751242709245</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4320713007578227</v>
       </c>
       <c r="L9" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9274826919051139</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4388759918319155</v>
       </c>
       <c r="N9" t="n">
-        <v>143.7767041506904</v>
+        <v>37.35665862522577</v>
       </c>
       <c r="O9" t="n">
-        <v>285.1118766939068</v>
+        <v>74.32124221345158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_8</t>
+          <t>model_1_28_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9468628204477806</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.74282259438539</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7337912348770343</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998210055104524</v>
+        <v>0.9612936286618265</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.186272945210816</v>
       </c>
       <c r="G10" t="n">
-        <v>1.173451248867095</v>
+        <v>1.719746495537963</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9522133171737681</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0005195416143345048</v>
+        <v>0.1270905090515692</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.730545405163131</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4315934953295937</v>
       </c>
       <c r="L10" t="n">
-        <v>1.015676519475498</v>
+        <v>0.927642989545914</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4383906614458221</v>
       </c>
       <c r="N10" t="n">
-        <v>143.7767041506904</v>
+        <v>37.36108446709535</v>
       </c>
       <c r="O10" t="n">
-        <v>285.1118766939068</v>
+        <v>74.32566805532116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_9</t>
+          <t>model_1_28_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9443362477484925</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7403469707186325</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7333494237166038</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998210055104524</v>
+        <v>0.9690533981189628</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.195129872544024</v>
       </c>
       <c r="G11" t="n">
-        <v>1.173451248867095</v>
+        <v>1.736301002396769</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9537936500769448</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0005195416143345048</v>
+        <v>0.1016116791758879</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.725724378565591</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4417350705389193</v>
       </c>
       <c r="L11" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9242025501256067</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4486919563268387</v>
       </c>
       <c r="N11" t="n">
-        <v>143.7767041506904</v>
+        <v>37.26817985812075</v>
       </c>
       <c r="O11" t="n">
-        <v>285.1118766939068</v>
+        <v>74.23276344634657</v>
       </c>
     </row>
   </sheetData>
